--- a/checkee.xlsx
+++ b/checkee.xlsx
@@ -429,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10599</v>
+        <v>10672</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>7003</v>
+        <v>7030</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -480,13 +480,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1951</v>
+        <v>1966</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/checkee.xlsx
+++ b/checkee.xlsx
@@ -1,56 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb\Documents\Jupyter_notebook\CheckeeInfoCrawl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198452E0-67DC-47D7-8E28-820F084F855F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10320" yWindow="2088" windowWidth="30960" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="consular summary" sheetId="1" r:id="rId1"/>
+    <sheet name="long check avg time" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>consular</t>
+    <t>month</t>
   </si>
   <si>
-    <t>overall case</t>
+    <t>avg time</t>
   </si>
   <si>
-    <t>reject case</t>
+    <t>MIN time</t>
   </si>
   <si>
-    <t>long check case</t>
+    <t>MAX time</t>
   </si>
   <si>
-    <t>BeiJing</t>
-  </si>
-  <si>
-    <t>ChengDu</t>
-  </si>
-  <si>
-    <t>ShangHai</t>
-  </si>
-  <si>
-    <t>GuangZhou</t>
-  </si>
-  <si>
-    <t>ShenYang</t>
-  </si>
-  <si>
-    <t>Europe</t>
+    <t>monthly case num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +57,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,10 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,7 +114,1686 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> AVG Waiting Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="134"/>
+                <c:pt idx="0">
+                  <c:v>200812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200910</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>201010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>201012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>201102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>201103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>201104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>201105</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201106</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>201107</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>201108</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>201109</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>201110</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>201111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201112</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>201201</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>201203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201204</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>201205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>201206</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>201207</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>201208</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>201209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>201210</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>201211</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>201212</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>201301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>201302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>201303</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>201304</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>201305</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>201306</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>201307</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>201308</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>201309</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>201310</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>201311</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>201312</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>201401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>201402</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>201403</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>201404</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>201405</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>201406</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>201407</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>201408</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>201409</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>201410</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>201411</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>201412</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>201501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>201502</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>201503</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>201504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>201505</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>201506</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>201507</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>201508</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>201509</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>201510</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>201511</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>201512</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>201701</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>201702</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>201703</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>201704</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>201705</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>201706</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>201707</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>201708</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>201709</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>201710</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>201711</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>201712</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>201801</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>201802</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>201803</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>201804</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>201805</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>201806</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>201807</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>201808</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>201809</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>201810</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>201811</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>201812</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>201901</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>201902</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>201903</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>201904</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>201905</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>201906</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>201907</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>201908</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>201909</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>201910</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>201911</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>201912</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>202001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="134"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B6F-4840-99E2-7BCE004336F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1330862304"/>
+        <c:axId val="1118469056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1330862304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118469056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1118469056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330862304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274397</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>103679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327407</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>63922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D983C68-2542-46E5-997B-70394BA1A5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -159,7 +1839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +1871,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +1923,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +2116,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,110 +2138,3746 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>200812</v>
       </c>
       <c r="C2">
-        <v>10672</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>200901</v>
       </c>
       <c r="C3">
-        <v>1455</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>427</v>
+      </c>
+      <c r="F3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>200902</v>
       </c>
       <c r="C4">
-        <v>7030</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>177</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>200903</v>
       </c>
       <c r="C5">
-        <v>1966</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>200904</v>
       </c>
       <c r="C6">
-        <v>915</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>200905</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>293</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>200906</v>
+      </c>
+      <c r="C8">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>134</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>200907</v>
+      </c>
+      <c r="C9">
+        <v>191</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>909</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>200908</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>365</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>354</v>
-      </c>
-      <c r="D7">
+      <c r="B11">
+        <v>200909</v>
+      </c>
+      <c r="C11">
+        <v>104</v>
+      </c>
+      <c r="D11">
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <v>230</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>200910</v>
+      </c>
+      <c r="C12">
+        <v>133</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>171</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>200911</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>200912</v>
+      </c>
+      <c r="C14">
+        <v>148</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>785</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>201001</v>
+      </c>
+      <c r="C15">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>235</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>201002</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>386</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>201003</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>133</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>201004</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="D18">
+        <v>119</v>
+      </c>
+      <c r="E18">
+        <v>244</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>201005</v>
+      </c>
+      <c r="C19">
+        <v>162</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>611</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>201006</v>
+      </c>
+      <c r="C20">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>395</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>201007</v>
+      </c>
+      <c r="C21">
+        <v>104</v>
+      </c>
+      <c r="D21">
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <v>225</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>201008</v>
+      </c>
+      <c r="C22">
+        <v>126</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>529</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>201009</v>
+      </c>
+      <c r="C23">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>201010</v>
+      </c>
+      <c r="C24">
+        <v>209</v>
+      </c>
+      <c r="D24">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>378</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>201011</v>
+      </c>
+      <c r="C25">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>258</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>201012</v>
+      </c>
+      <c r="C26">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>310</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>201101</v>
+      </c>
+      <c r="C27">
+        <v>193</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>511</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>201102</v>
+      </c>
+      <c r="C28">
+        <v>172</v>
+      </c>
+      <c r="D28">
+        <v>91</v>
+      </c>
+      <c r="E28">
+        <v>253</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>201103</v>
+      </c>
+      <c r="C29">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <v>61</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="E7">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>201104</v>
+      </c>
+      <c r="C30">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>201105</v>
+      </c>
+      <c r="C31">
+        <v>176</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>964</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>201106</v>
+      </c>
+      <c r="C32">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>113</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>201107</v>
+      </c>
+      <c r="C33">
+        <v>112</v>
+      </c>
+      <c r="D33">
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <v>155</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>201108</v>
+      </c>
+      <c r="C34">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>201109</v>
+      </c>
+      <c r="C35">
+        <v>116</v>
+      </c>
+      <c r="D35">
+        <v>116</v>
+      </c>
+      <c r="E35">
+        <v>116</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>201110</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <v>75</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>201111</v>
+      </c>
+      <c r="C37">
+        <v>137</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>173</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>201112</v>
+      </c>
+      <c r="C38">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>77</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>201201</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>201202</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>75</v>
+      </c>
+      <c r="E40">
+        <v>75</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>201203</v>
+      </c>
+      <c r="C41">
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>77</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>201204</v>
+      </c>
+      <c r="C42">
+        <v>73</v>
+      </c>
+      <c r="D42">
+        <v>67</v>
+      </c>
+      <c r="E42">
+        <v>84</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>201205</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+      <c r="D43">
+        <v>61</v>
+      </c>
+      <c r="E43">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>201206</v>
+      </c>
+      <c r="C44">
+        <v>340</v>
+      </c>
+      <c r="D44">
+        <v>333</v>
+      </c>
+      <c r="E44">
+        <v>347</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>201207</v>
+      </c>
+      <c r="C45">
+        <v>121</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+      <c r="E45">
+        <v>328</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>201208</v>
+      </c>
+      <c r="C46">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <v>71</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>201209</v>
+      </c>
+      <c r="C47">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>201210</v>
+      </c>
+      <c r="C48">
+        <v>93</v>
+      </c>
+      <c r="D48">
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>94</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>47</v>
+      </c>
+      <c r="B49">
+        <v>201211</v>
+      </c>
+      <c r="C49">
+        <v>147</v>
+      </c>
+      <c r="D49">
+        <v>88</v>
+      </c>
+      <c r="E49">
+        <v>207</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>201212</v>
+      </c>
+      <c r="C50">
+        <v>144</v>
+      </c>
+      <c r="D50">
+        <v>87</v>
+      </c>
+      <c r="E50">
+        <v>201</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>201301</v>
+      </c>
+      <c r="C51">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>61</v>
+      </c>
+      <c r="E51">
+        <v>81</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>201302</v>
+      </c>
+      <c r="C52">
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <v>82</v>
+      </c>
+      <c r="E52">
+        <v>82</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>201303</v>
+      </c>
+      <c r="C53">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>222</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>201304</v>
+      </c>
+      <c r="C54">
+        <v>144</v>
+      </c>
+      <c r="D54">
+        <v>66</v>
+      </c>
+      <c r="E54">
+        <v>374</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>201305</v>
+      </c>
+      <c r="C55">
+        <v>91</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>259</v>
+      </c>
+      <c r="F55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>201306</v>
+      </c>
+      <c r="C56">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <v>165</v>
+      </c>
+      <c r="F56">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>201307</v>
+      </c>
+      <c r="C57">
+        <v>72</v>
+      </c>
+      <c r="D57">
+        <v>60</v>
+      </c>
+      <c r="E57">
+        <v>114</v>
+      </c>
+      <c r="F57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>201308</v>
+      </c>
+      <c r="C58">
+        <v>86</v>
+      </c>
+      <c r="D58">
+        <v>60</v>
+      </c>
+      <c r="E58">
+        <v>222</v>
+      </c>
+      <c r="F58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>201309</v>
+      </c>
+      <c r="C59">
+        <v>97</v>
+      </c>
+      <c r="D59">
+        <v>62</v>
+      </c>
+      <c r="E59">
+        <v>220</v>
+      </c>
+      <c r="F59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>201310</v>
+      </c>
+      <c r="C60">
+        <v>86</v>
+      </c>
+      <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>111</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>201311</v>
+      </c>
+      <c r="C61">
+        <v>126</v>
+      </c>
+      <c r="D61">
+        <v>71</v>
+      </c>
+      <c r="E61">
+        <v>206</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>201312</v>
+      </c>
+      <c r="C62">
+        <v>188</v>
+      </c>
+      <c r="D62">
+        <v>188</v>
+      </c>
+      <c r="E62">
+        <v>188</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>201402</v>
+      </c>
+      <c r="C63">
+        <v>103</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>185</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>201403</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <v>64</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>201404</v>
+      </c>
+      <c r="C65">
+        <v>114</v>
+      </c>
+      <c r="D65">
+        <v>68</v>
+      </c>
+      <c r="E65">
+        <v>160</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>201405</v>
+      </c>
+      <c r="C66">
+        <v>110</v>
+      </c>
+      <c r="D66">
+        <v>62</v>
+      </c>
+      <c r="E66">
+        <v>509</v>
+      </c>
+      <c r="F66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>201406</v>
+      </c>
+      <c r="C67">
+        <v>82</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67">
+        <v>136</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>201407</v>
+      </c>
+      <c r="C68">
+        <v>79</v>
+      </c>
+      <c r="D68">
+        <v>60</v>
+      </c>
+      <c r="E68">
+        <v>392</v>
+      </c>
+      <c r="F68">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>201408</v>
+      </c>
+      <c r="C69">
+        <v>81</v>
+      </c>
+      <c r="D69">
+        <v>64</v>
+      </c>
+      <c r="E69">
+        <v>316</v>
+      </c>
+      <c r="F69">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>201409</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="D70">
+        <v>60</v>
+      </c>
+      <c r="E70">
+        <v>97</v>
+      </c>
+      <c r="F70">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>201410</v>
+      </c>
+      <c r="C71">
+        <v>114</v>
+      </c>
+      <c r="D71">
+        <v>63</v>
+      </c>
+      <c r="E71">
+        <v>285</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>201411</v>
+      </c>
+      <c r="C72">
+        <v>90</v>
+      </c>
+      <c r="D72">
+        <v>63</v>
+      </c>
+      <c r="E72">
+        <v>116</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>201412</v>
+      </c>
+      <c r="C73">
+        <v>112</v>
+      </c>
+      <c r="D73">
+        <v>61</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>201501</v>
+      </c>
+      <c r="C74">
+        <v>92</v>
+      </c>
+      <c r="D74">
+        <v>60</v>
+      </c>
+      <c r="E74">
+        <v>203</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>201502</v>
+      </c>
+      <c r="C75">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>77</v>
+      </c>
+      <c r="E75">
+        <v>78</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>201503</v>
+      </c>
+      <c r="C76">
+        <v>69</v>
+      </c>
+      <c r="D76">
+        <v>63</v>
+      </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>201504</v>
+      </c>
+      <c r="C77">
+        <v>93</v>
+      </c>
+      <c r="D77">
+        <v>60</v>
+      </c>
+      <c r="E77">
+        <v>186</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>201505</v>
+      </c>
+      <c r="C78">
+        <v>85</v>
+      </c>
+      <c r="D78">
+        <v>61</v>
+      </c>
+      <c r="E78">
+        <v>161</v>
+      </c>
+      <c r="F78">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>201506</v>
+      </c>
+      <c r="C79">
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <v>60</v>
+      </c>
+      <c r="E79">
+        <v>228</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>201507</v>
+      </c>
+      <c r="C80">
+        <v>113</v>
+      </c>
+      <c r="D80">
+        <v>61</v>
+      </c>
+      <c r="E80">
+        <v>297</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>201508</v>
+      </c>
+      <c r="C81">
+        <v>162</v>
+      </c>
+      <c r="D81">
+        <v>83</v>
+      </c>
+      <c r="E81">
+        <v>424</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>201509</v>
+      </c>
+      <c r="C82">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>62</v>
+      </c>
+      <c r="E82">
+        <v>94</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>201510</v>
+      </c>
+      <c r="C83">
+        <v>69</v>
+      </c>
+      <c r="D83">
+        <v>63</v>
+      </c>
+      <c r="E83">
+        <v>80</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>201512</v>
+      </c>
+      <c r="C84">
+        <v>87</v>
+      </c>
+      <c r="D84">
+        <v>87</v>
+      </c>
+      <c r="E84">
+        <v>87</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>201601</v>
+      </c>
+      <c r="C85">
+        <v>92</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>201602</v>
+      </c>
+      <c r="C86">
+        <v>81</v>
+      </c>
+      <c r="D86">
+        <v>69</v>
+      </c>
+      <c r="E86">
+        <v>93</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>201603</v>
+      </c>
+      <c r="C87">
+        <v>127</v>
+      </c>
+      <c r="D87">
+        <v>72</v>
+      </c>
+      <c r="E87">
+        <v>328</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>201604</v>
+      </c>
+      <c r="C88">
+        <v>79</v>
+      </c>
+      <c r="D88">
+        <v>79</v>
+      </c>
+      <c r="E88">
+        <v>79</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>201605</v>
+      </c>
+      <c r="C89">
+        <v>74</v>
+      </c>
+      <c r="D89">
+        <v>60</v>
+      </c>
+      <c r="E89">
+        <v>140</v>
+      </c>
+      <c r="F89">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>201606</v>
+      </c>
+      <c r="C90">
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <v>61</v>
+      </c>
+      <c r="E90">
+        <v>61</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>201607</v>
+      </c>
+      <c r="C91">
+        <v>84</v>
+      </c>
+      <c r="D91">
+        <v>61</v>
+      </c>
+      <c r="E91">
+        <v>134</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>201608</v>
+      </c>
+      <c r="C92">
+        <v>81</v>
+      </c>
+      <c r="D92">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>113</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>201609</v>
+      </c>
+      <c r="C93">
+        <v>94</v>
+      </c>
+      <c r="D93">
+        <v>70</v>
+      </c>
+      <c r="E93">
+        <v>153</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>201610</v>
+      </c>
+      <c r="C94">
+        <v>102</v>
+      </c>
+      <c r="D94">
+        <v>70</v>
+      </c>
+      <c r="E94">
+        <v>154</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>201611</v>
+      </c>
+      <c r="C95">
+        <v>77</v>
+      </c>
+      <c r="D95">
+        <v>62</v>
+      </c>
+      <c r="E95">
+        <v>114</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>201612</v>
+      </c>
+      <c r="C96">
+        <v>74</v>
+      </c>
+      <c r="D96">
+        <v>60</v>
+      </c>
+      <c r="E96">
+        <v>107</v>
+      </c>
+      <c r="F96">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>201701</v>
+      </c>
+      <c r="C97">
+        <v>86</v>
+      </c>
+      <c r="D97">
+        <v>61</v>
+      </c>
+      <c r="E97">
+        <v>268</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>201702</v>
+      </c>
+      <c r="C98">
+        <v>66</v>
+      </c>
+      <c r="D98">
+        <v>64</v>
+      </c>
+      <c r="E98">
+        <v>70</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>201703</v>
+      </c>
+      <c r="C99">
+        <v>79</v>
+      </c>
+      <c r="D99">
+        <v>60</v>
+      </c>
+      <c r="E99">
+        <v>121</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>201704</v>
+      </c>
+      <c r="C100">
+        <v>77</v>
+      </c>
+      <c r="D100">
+        <v>64</v>
+      </c>
+      <c r="E100">
+        <v>119</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>201705</v>
+      </c>
+      <c r="C101">
+        <v>83</v>
+      </c>
+      <c r="D101">
+        <v>62</v>
+      </c>
+      <c r="E101">
+        <v>154</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>201706</v>
+      </c>
+      <c r="C102">
+        <v>72</v>
+      </c>
+      <c r="D102">
+        <v>60</v>
+      </c>
+      <c r="E102">
+        <v>128</v>
+      </c>
+      <c r="F102">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>201707</v>
+      </c>
+      <c r="C103">
+        <v>229</v>
+      </c>
+      <c r="D103">
+        <v>60</v>
+      </c>
+      <c r="E103">
+        <v>772</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>201708</v>
+      </c>
+      <c r="C104">
+        <v>238</v>
+      </c>
+      <c r="D104">
+        <v>66</v>
+      </c>
+      <c r="E104">
+        <v>651</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>201709</v>
+      </c>
+      <c r="C105">
+        <v>116</v>
+      </c>
+      <c r="D105">
+        <v>95</v>
+      </c>
+      <c r="E105">
+        <v>137</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>201710</v>
+      </c>
+      <c r="C106">
+        <v>81</v>
+      </c>
+      <c r="D106">
+        <v>61</v>
+      </c>
+      <c r="E106">
+        <v>108</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>201711</v>
+      </c>
+      <c r="C107">
+        <v>76</v>
+      </c>
+      <c r="D107">
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>84</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>201712</v>
+      </c>
+      <c r="C108">
+        <v>79</v>
+      </c>
+      <c r="D108">
+        <v>60</v>
+      </c>
+      <c r="E108">
+        <v>114</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>201801</v>
+      </c>
+      <c r="C109">
+        <v>83</v>
+      </c>
+      <c r="D109">
+        <v>60</v>
+      </c>
+      <c r="E109">
+        <v>143</v>
+      </c>
+      <c r="F109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>201802</v>
+      </c>
+      <c r="C110">
+        <v>133</v>
+      </c>
+      <c r="D110">
+        <v>63</v>
+      </c>
+      <c r="E110">
+        <v>205</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>201803</v>
+      </c>
+      <c r="C111">
+        <v>85</v>
+      </c>
+      <c r="D111">
+        <v>62</v>
+      </c>
+      <c r="E111">
+        <v>106</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>201804</v>
+      </c>
+      <c r="C112">
+        <v>121</v>
+      </c>
+      <c r="D112">
+        <v>60</v>
+      </c>
+      <c r="E112">
+        <v>397</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>201805</v>
+      </c>
+      <c r="C113">
+        <v>79</v>
+      </c>
+      <c r="D113">
+        <v>61</v>
+      </c>
+      <c r="E113">
+        <v>133</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>201806</v>
+      </c>
+      <c r="C114">
+        <v>161</v>
+      </c>
+      <c r="D114">
+        <v>60</v>
+      </c>
+      <c r="E114">
+        <v>624</v>
+      </c>
+      <c r="F114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>201807</v>
+      </c>
+      <c r="C115">
+        <v>145</v>
+      </c>
+      <c r="D115">
+        <v>60</v>
+      </c>
+      <c r="E115">
+        <v>403</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>201808</v>
+      </c>
+      <c r="C116">
+        <v>99</v>
+      </c>
+      <c r="D116">
+        <v>60</v>
+      </c>
+      <c r="E116">
+        <v>350</v>
+      </c>
+      <c r="F116">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>201809</v>
+      </c>
+      <c r="C117">
+        <v>128</v>
+      </c>
+      <c r="D117">
+        <v>61</v>
+      </c>
+      <c r="E117">
+        <v>423</v>
+      </c>
+      <c r="F117">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>201810</v>
+      </c>
+      <c r="C118">
+        <v>106</v>
+      </c>
+      <c r="D118">
+        <v>62</v>
+      </c>
+      <c r="E118">
+        <v>386</v>
+      </c>
+      <c r="F118">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>201811</v>
+      </c>
+      <c r="C119">
+        <v>135</v>
+      </c>
+      <c r="D119">
+        <v>60</v>
+      </c>
+      <c r="E119">
+        <v>459</v>
+      </c>
+      <c r="F119">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>201812</v>
+      </c>
+      <c r="C120">
+        <v>107</v>
+      </c>
+      <c r="D120">
+        <v>63</v>
+      </c>
+      <c r="E120">
+        <v>254</v>
+      </c>
+      <c r="F120">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>201901</v>
+      </c>
+      <c r="C121">
+        <v>103</v>
+      </c>
+      <c r="D121">
+        <v>61</v>
+      </c>
+      <c r="E121">
+        <v>383</v>
+      </c>
+      <c r="F121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>201902</v>
+      </c>
+      <c r="C122">
+        <v>103</v>
+      </c>
+      <c r="D122">
+        <v>60</v>
+      </c>
+      <c r="E122">
+        <v>212</v>
+      </c>
+      <c r="F122">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>201903</v>
+      </c>
+      <c r="C123">
+        <v>103</v>
+      </c>
+      <c r="D123">
+        <v>63</v>
+      </c>
+      <c r="E123">
+        <v>288</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>201904</v>
+      </c>
+      <c r="C124">
+        <v>124</v>
+      </c>
+      <c r="D124">
+        <v>61</v>
+      </c>
+      <c r="E124">
+        <v>255</v>
+      </c>
+      <c r="F124">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>201905</v>
+      </c>
+      <c r="C125">
+        <v>135</v>
+      </c>
+      <c r="D125">
+        <v>60</v>
+      </c>
+      <c r="E125">
+        <v>254</v>
+      </c>
+      <c r="F125">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>201906</v>
+      </c>
+      <c r="C126">
+        <v>87</v>
+      </c>
+      <c r="D126">
+        <v>60</v>
+      </c>
+      <c r="E126">
+        <v>218</v>
+      </c>
+      <c r="F126">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>201907</v>
+      </c>
+      <c r="C127">
+        <v>88</v>
+      </c>
+      <c r="D127">
+        <v>60</v>
+      </c>
+      <c r="E127">
+        <v>136</v>
+      </c>
+      <c r="F127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>201908</v>
+      </c>
+      <c r="C128">
+        <v>70</v>
+      </c>
+      <c r="D128">
+        <v>61</v>
+      </c>
+      <c r="E128">
+        <v>77</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>201909</v>
+      </c>
+      <c r="C129">
+        <v>84</v>
+      </c>
+      <c r="D129">
+        <v>61</v>
+      </c>
+      <c r="E129">
+        <v>126</v>
+      </c>
+      <c r="F129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>201910</v>
+      </c>
+      <c r="C130">
+        <v>72</v>
+      </c>
+      <c r="D130">
+        <v>61</v>
+      </c>
+      <c r="E130">
+        <v>89</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>201911</v>
+      </c>
+      <c r="C131">
+        <v>94</v>
+      </c>
+      <c r="D131">
+        <v>60</v>
+      </c>
+      <c r="E131">
+        <v>401</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>201912</v>
+      </c>
+      <c r="C132">
+        <v>68</v>
+      </c>
+      <c r="D132">
+        <v>68</v>
+      </c>
+      <c r="E132">
+        <v>68</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>202001</v>
+      </c>
+      <c r="C133">
+        <v>61</v>
+      </c>
+      <c r="D133">
+        <v>61</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31006661-AED3-4771-8FB1-9F5BA85910EC}">
+  <dimension ref="A1:B138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>200812</v>
+      </c>
+      <c r="B5" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200901</v>
+      </c>
+      <c r="B6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200902</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>200903</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>200904</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>200905</v>
+      </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>200906</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>200907</v>
+      </c>
+      <c r="B12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>200908</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>200909</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>200910</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>200911</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>200912</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>201001</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>201002</v>
+      </c>
+      <c r="B19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>201003</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>201004</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>201005</v>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>201006</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>201007</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>201008</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>201009</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>201010</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>201011</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>201012</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>201101</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>201102</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>201103</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>201104</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>201105</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>201106</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>201107</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>201108</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>201109</v>
+      </c>
+      <c r="B38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>201110</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>201111</v>
+      </c>
+      <c r="B40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>201112</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>201201</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>201202</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>201203</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>201204</v>
+      </c>
+      <c r="B45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>201205</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>201206</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>201207</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>201208</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>201209</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>201210</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>201211</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>201212</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>201301</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>201302</v>
+      </c>
+      <c r="B55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>201303</v>
+      </c>
+      <c r="B56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>201304</v>
+      </c>
+      <c r="B57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>201305</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>201306</v>
+      </c>
+      <c r="B59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>201307</v>
+      </c>
+      <c r="B60">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>201308</v>
+      </c>
+      <c r="B61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>201309</v>
+      </c>
+      <c r="B62">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>201310</v>
+      </c>
+      <c r="B63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>201311</v>
+      </c>
+      <c r="B64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>201312</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>201401</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>201402</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>201403</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>201404</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>201405</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>201406</v>
+      </c>
+      <c r="B71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>201407</v>
+      </c>
+      <c r="B72">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>201408</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>201409</v>
+      </c>
+      <c r="B74">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>201410</v>
+      </c>
+      <c r="B75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>201411</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>201412</v>
+      </c>
+      <c r="B77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>201501</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>201502</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>201503</v>
+      </c>
+      <c r="B80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>201504</v>
+      </c>
+      <c r="B81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>201505</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>201506</v>
+      </c>
+      <c r="B83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>201507</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>201508</v>
+      </c>
+      <c r="B85">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>201509</v>
+      </c>
+      <c r="B86">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>201510</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>201511</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>201512</v>
+      </c>
+      <c r="B89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>201601</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>201602</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>201603</v>
+      </c>
+      <c r="B92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>201604</v>
+      </c>
+      <c r="B93">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>201605</v>
+      </c>
+      <c r="B94">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>201606</v>
+      </c>
+      <c r="B95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>201607</v>
+      </c>
+      <c r="B96">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>201608</v>
+      </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>201609</v>
+      </c>
+      <c r="B98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>201610</v>
+      </c>
+      <c r="B99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>201611</v>
+      </c>
+      <c r="B100">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>201612</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>201701</v>
+      </c>
+      <c r="B102">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>201702</v>
+      </c>
+      <c r="B103">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>201703</v>
+      </c>
+      <c r="B104">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>201704</v>
+      </c>
+      <c r="B105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>201705</v>
+      </c>
+      <c r="B106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>201706</v>
+      </c>
+      <c r="B107">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>201707</v>
+      </c>
+      <c r="B108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>201708</v>
+      </c>
+      <c r="B109">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>201709</v>
+      </c>
+      <c r="B110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>201710</v>
+      </c>
+      <c r="B111">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>201711</v>
+      </c>
+      <c r="B112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>201712</v>
+      </c>
+      <c r="B113">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>201801</v>
+      </c>
+      <c r="B114">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>201802</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>201803</v>
+      </c>
+      <c r="B116">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>201804</v>
+      </c>
+      <c r="B117">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>201805</v>
+      </c>
+      <c r="B118">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>201806</v>
+      </c>
+      <c r="B119">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>201807</v>
+      </c>
+      <c r="B120">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>201808</v>
+      </c>
+      <c r="B121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>201809</v>
+      </c>
+      <c r="B122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>201810</v>
+      </c>
+      <c r="B123">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>201811</v>
+      </c>
+      <c r="B124">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>201812</v>
+      </c>
+      <c r="B125">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>201901</v>
+      </c>
+      <c r="B126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>201902</v>
+      </c>
+      <c r="B127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>201903</v>
+      </c>
+      <c r="B128">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>201904</v>
+      </c>
+      <c r="B129">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>201905</v>
+      </c>
+      <c r="B130">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>201906</v>
+      </c>
+      <c r="B131">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>201907</v>
+      </c>
+      <c r="B132">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>201908</v>
+      </c>
+      <c r="B133">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>201909</v>
+      </c>
+      <c r="B134">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>201910</v>
+      </c>
+      <c r="B135">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>201911</v>
+      </c>
+      <c r="B136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>201912</v>
+      </c>
+      <c r="B137">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>202001</v>
+      </c>
+      <c r="B138">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>